--- a/biology/Médecine/Affection_oculaire_provoquée_par_le_rayonnement_thermique_associé_aux_poussières/Affection_oculaire_provoquée_par_le_rayonnement_thermique_associé_aux_poussières.xlsx
+++ b/biology/Médecine/Affection_oculaire_provoquée_par_le_rayonnement_thermique_associé_aux_poussières/Affection_oculaire_provoquée_par_le_rayonnement_thermique_associé_aux_poussières.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Affection_oculaire_provoqu%C3%A9e_par_le_rayonnement_thermique_associ%C3%A9_aux_poussi%C3%A8res</t>
+          <t>Affection_oculaire_provoquée_par_le_rayonnement_thermique_associé_aux_poussières</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article décrit les critères administratifs pour qu'une affection oculaire provoquée par le rayonnement thermique associé aux poussières soit reconnue comme maladie professionnelle en France.
 Ce sujet relève du domaine de la législation sur la protection sociale et a un caractère davantage  juridique que médical. Pour la description clinique de la maladie se reporter à l'article suivant :
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Affection_oculaire_provoqu%C3%A9e_par_le_rayonnement_thermique_associ%C3%A9_aux_poussi%C3%A8res</t>
+          <t>Affection_oculaire_provoquée_par_le_rayonnement_thermique_associé_aux_poussières</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,13 +526,124 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Régime général
-Données professionnelles
-Sont exposés les verriers, particulièrement dans les verreries à main exposés au rayonnement infrarouge du verre en fusion à 1 500 °C ainsi qu'aux poussières des produits entrant dans la composition du verre dégagées au moment de leur enfournement.
-Données médicales
-Le ptérygion est une invasion cornéenne issue de la conjonctive limbique. C’est une lésion bénigne de la conjonctive, membrane superficielle qui tapisse la surface de l'œil. Une intervention chirurgicale n'est prévue que dans le cas où le ptérygion obstrue une partie de la vision.
-Prévention
-Il existe des lunettes à verres antithermiques protégeant du risque de ptérygion et de cataracte.(Voir : Tableau No 71 du Régime Général).
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Affection_oculaire_provoquée_par_le_rayonnement_thermique_associé_aux_poussières</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Affection_oculaire_provoqu%C3%A9e_par_le_rayonnement_thermique_associ%C3%A9_aux_poussi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Données professionnelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sont exposés les verriers, particulièrement dans les verreries à main exposés au rayonnement infrarouge du verre en fusion à 1 500 °C ainsi qu'aux poussières des produits entrant dans la composition du verre dégagées au moment de leur enfournement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Affection_oculaire_provoquée_par_le_rayonnement_thermique_associé_aux_poussières</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Affection_oculaire_provoqu%C3%A9e_par_le_rayonnement_thermique_associ%C3%A9_aux_poussi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Données médicales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ptérygion est une invasion cornéenne issue de la conjonctive limbique. C’est une lésion bénigne de la conjonctive, membrane superficielle qui tapisse la surface de l'œil. Une intervention chirurgicale n'est prévue que dans le cas où le ptérygion obstrue une partie de la vision.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Affection_oculaire_provoquée_par_le_rayonnement_thermique_associé_aux_poussières</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Affection_oculaire_provoqu%C3%A9e_par_le_rayonnement_thermique_associ%C3%A9_aux_poussi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Prévention</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe des lunettes à verres antithermiques protégeant du risque de ptérygion et de cataracte.(Voir : Tableau No 71 du Régime Général).
 </t>
         </is>
       </c>
